--- a/07_fakesam_nestedY/ALCONSC.xlsx
+++ b/07_fakesam_nestedY/ALCONSC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9BCD17-D81F-4DA3-8440-55D689A49D6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BE817-E83B-4BA0-B66F-BB3AAD7B09DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -390,7 +400,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -414,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -431,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -482,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -491,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
@@ -499,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -508,7 +518,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
@@ -516,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -530,20 +540,29 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B9">
+        <f>SUM(B2:B8)</f>
         <v>100</v>
       </c>
       <c r="C9">
+        <f>SUM(C2:C8)</f>
         <v>100</v>
       </c>
       <c r="D9">
+        <f>SUM(D2:D8)</f>
         <v>100</v>
       </c>
       <c r="E9">
+        <f>SUM(E2:E8)</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B9:D9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
